--- a/documentacao/DicionariodeDados.xlsx
+++ b/documentacao/DicionariodeDados.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vinicius Piantoni\TCC\documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TCC\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D46AD0-D463-4029-8683-2C147D1EB018}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7620"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="24">
-  <si>
-    <t>hospitals</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="27">
   <si>
     <t>Restrição</t>
   </si>
@@ -92,16 +90,28 @@
     <t>bio</t>
   </si>
   <si>
-    <t>users</t>
-  </si>
-  <si>
     <t>—</t>
+  </si>
+  <si>
+    <t>hospital</t>
+  </si>
+  <si>
+    <t>paciente</t>
+  </si>
+  <si>
+    <t>suporte</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -166,15 +176,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,11 +469,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E5:J25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="E5:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:J25"/>
+      <selection activeCell="E27" sqref="E27:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,369 +492,480 @@
   </cols>
   <sheetData>
     <row r="5" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E6" s="3" t="s">
+      <c r="I6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="H19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="3" t="s">
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="F20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>23</v>
+      <c r="F30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E5:J5"/>
     <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E27:J27"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
